--- a/スキルシート(鎌田均)_20230217.xlsx
+++ b/スキルシート(鎌田均)_20230217.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamatahitoshi/Library/CloudStorage/Dropbox/Mac/Documents/hiesiea/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamatahitoshi/Documents/hiesiea/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04232FF-0987-804D-9A1B-AD6D03280689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1237D6-DDF0-C243-BD2E-24F4658B0CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2197" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2200" uniqueCount="937">
   <si>
     <t>年齢</t>
   </si>
@@ -4880,29 +4880,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> -Codelabにて学習コンテンツの選定</t>
-    <rPh sb="11" eb="13">
-      <t xml:space="preserve">ガクシュウコンテンツノ </t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t xml:space="preserve">センテイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> -リファクタリングの取り組みを記事化、発信</t>
-    <rPh sb="16" eb="18">
-      <t xml:space="preserve">キジカ </t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t xml:space="preserve">カ </t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t xml:space="preserve">ハッシン </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・Androidアプリの機能追加、不具合改修</t>
     <rPh sb="11" eb="15">
       <t xml:space="preserve">キノウツイカ </t>
@@ -4921,6 +4898,32 @@
   </si>
   <si>
     <t>・DroidKaigiへの参加</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -リファクタリングの取り組みを記事化、発信</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Codelabにて学習コンテンツの選定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -JavaからKotlinに移行</t>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Accompanist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -SharedPreferencesからDataStoreに移行</t>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -13762,7 +13765,7 @@
       <c r="K31" s="129"/>
       <c r="L31" s="130"/>
       <c r="M31" s="48" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="N31" s="49"/>
       <c r="O31" s="49"/>
@@ -14446,7 +14449,7 @@
       <c r="K39" s="86"/>
       <c r="L39" s="87"/>
       <c r="M39" s="48" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="N39" s="49"/>
       <c r="O39" s="49"/>
@@ -15020,7 +15023,7 @@
       <c r="K46" s="46"/>
       <c r="L46" s="47"/>
       <c r="M46" s="48" t="s">
-        <v>911</v>
+        <v>934</v>
       </c>
       <c r="N46" s="49"/>
       <c r="O46" s="49"/>
@@ -15102,7 +15105,7 @@
       <c r="K47" s="46"/>
       <c r="L47" s="47"/>
       <c r="M47" s="48" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="N47" s="49"/>
       <c r="O47" s="49"/>
@@ -15184,7 +15187,7 @@
       <c r="K48" s="46"/>
       <c r="L48" s="47"/>
       <c r="M48" s="48" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="N48" s="49"/>
       <c r="O48" s="49"/>
@@ -15266,7 +15269,7 @@
       <c r="K49" s="46"/>
       <c r="L49" s="47"/>
       <c r="M49" s="48" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="N49" s="49"/>
       <c r="O49" s="49"/>
@@ -15348,7 +15351,7 @@
       <c r="K50" s="46"/>
       <c r="L50" s="47"/>
       <c r="M50" s="48" t="s">
-        <v>929</v>
+        <v>912</v>
       </c>
       <c r="N50" s="49"/>
       <c r="O50" s="49"/>
@@ -15430,7 +15433,7 @@
       <c r="K51" s="46"/>
       <c r="L51" s="47"/>
       <c r="M51" s="48" t="s">
-        <v>930</v>
+        <v>914</v>
       </c>
       <c r="N51" s="49"/>
       <c r="O51" s="49"/>
@@ -15512,7 +15515,7 @@
       <c r="K52" s="46"/>
       <c r="L52" s="47"/>
       <c r="M52" s="48" t="s">
-        <v>815</v>
+        <v>933</v>
       </c>
       <c r="N52" s="49"/>
       <c r="O52" s="49"/>
@@ -15594,7 +15597,7 @@
       <c r="K53" s="46"/>
       <c r="L53" s="47"/>
       <c r="M53" s="48" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="N53" s="49"/>
       <c r="O53" s="49"/>
@@ -15667,62 +15670,66 @@
       <c r="B54" s="91"/>
       <c r="C54" s="92"/>
       <c r="D54" s="45"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="46"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="48"/>
-      <c r="N54" s="49"/>
-      <c r="O54" s="49"/>
-      <c r="P54" s="49"/>
-      <c r="Q54" s="49"/>
-      <c r="R54" s="49"/>
-      <c r="S54" s="49"/>
-      <c r="T54" s="49"/>
-      <c r="U54" s="49"/>
-      <c r="V54" s="49"/>
-      <c r="W54" s="49"/>
-      <c r="X54" s="49"/>
-      <c r="Y54" s="49"/>
-      <c r="Z54" s="49"/>
-      <c r="AA54" s="49"/>
-      <c r="AB54" s="49"/>
-      <c r="AC54" s="49"/>
-      <c r="AD54" s="49"/>
-      <c r="AE54" s="49"/>
-      <c r="AF54" s="49"/>
-      <c r="AG54" s="49"/>
-      <c r="AH54" s="49"/>
-      <c r="AI54" s="49"/>
-      <c r="AJ54" s="49"/>
-      <c r="AK54" s="49"/>
-      <c r="AL54" s="49"/>
-      <c r="AM54" s="50"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="45"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="48" t="s">
+        <v>931</v>
+      </c>
+      <c r="N54" s="48"/>
+      <c r="O54" s="48"/>
+      <c r="P54" s="48"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="48"/>
+      <c r="S54" s="48"/>
+      <c r="T54" s="48"/>
+      <c r="U54" s="48"/>
+      <c r="V54" s="48"/>
+      <c r="W54" s="48"/>
+      <c r="X54" s="48"/>
+      <c r="Y54" s="48"/>
+      <c r="Z54" s="48"/>
+      <c r="AA54" s="48"/>
+      <c r="AB54" s="48"/>
+      <c r="AC54" s="48"/>
+      <c r="AD54" s="48"/>
+      <c r="AE54" s="48"/>
+      <c r="AF54" s="48"/>
+      <c r="AG54" s="48"/>
+      <c r="AH54" s="48"/>
+      <c r="AI54" s="48"/>
+      <c r="AJ54" s="48"/>
+      <c r="AK54" s="48"/>
+      <c r="AL54" s="48"/>
+      <c r="AM54" s="48"/>
       <c r="AN54" s="42"/>
-      <c r="AO54" s="43"/>
-      <c r="AP54" s="43"/>
-      <c r="AQ54" s="43"/>
-      <c r="AR54" s="43"/>
-      <c r="AS54" s="44"/>
+      <c r="AO54" s="42"/>
+      <c r="AP54" s="42"/>
+      <c r="AQ54" s="42"/>
+      <c r="AR54" s="42"/>
+      <c r="AS54" s="42"/>
       <c r="AT54" s="51"/>
-      <c r="AU54" s="52"/>
-      <c r="AV54" s="52"/>
-      <c r="AW54" s="52"/>
-      <c r="AX54" s="52"/>
-      <c r="AY54" s="52"/>
-      <c r="AZ54" s="52"/>
-      <c r="BA54" s="53"/>
-      <c r="BB54" s="42"/>
-      <c r="BC54" s="43"/>
-      <c r="BD54" s="43"/>
-      <c r="BE54" s="43"/>
-      <c r="BF54" s="43"/>
-      <c r="BG54" s="43"/>
-      <c r="BH54" s="44"/>
+      <c r="AU54" s="51"/>
+      <c r="AV54" s="51"/>
+      <c r="AW54" s="51"/>
+      <c r="AX54" s="51"/>
+      <c r="AY54" s="51"/>
+      <c r="AZ54" s="51"/>
+      <c r="BA54" s="51"/>
+      <c r="BB54" s="42" t="s">
+        <v>935</v>
+      </c>
+      <c r="BC54" s="42"/>
+      <c r="BD54" s="42"/>
+      <c r="BE54" s="42"/>
+      <c r="BF54" s="42"/>
+      <c r="BG54" s="42"/>
+      <c r="BH54" s="42"/>
       <c r="BI54" s="33"/>
       <c r="BJ54" s="34"/>
       <c r="BK54" s="34"/>
@@ -15745,62 +15752,64 @@
       <c r="B55" s="91"/>
       <c r="C55" s="92"/>
       <c r="D55" s="45"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="46"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="47"/>
-      <c r="M55" s="48"/>
-      <c r="N55" s="49"/>
-      <c r="O55" s="49"/>
-      <c r="P55" s="49"/>
-      <c r="Q55" s="49"/>
-      <c r="R55" s="49"/>
-      <c r="S55" s="49"/>
-      <c r="T55" s="49"/>
-      <c r="U55" s="49"/>
-      <c r="V55" s="49"/>
-      <c r="W55" s="49"/>
-      <c r="X55" s="49"/>
-      <c r="Y55" s="49"/>
-      <c r="Z55" s="49"/>
-      <c r="AA55" s="49"/>
-      <c r="AB55" s="49"/>
-      <c r="AC55" s="49"/>
-      <c r="AD55" s="49"/>
-      <c r="AE55" s="49"/>
-      <c r="AF55" s="49"/>
-      <c r="AG55" s="49"/>
-      <c r="AH55" s="49"/>
-      <c r="AI55" s="49"/>
-      <c r="AJ55" s="49"/>
-      <c r="AK55" s="49"/>
-      <c r="AL55" s="49"/>
-      <c r="AM55" s="50"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="45"/>
+      <c r="L55" s="45"/>
+      <c r="M55" s="48" t="s">
+        <v>815</v>
+      </c>
+      <c r="N55" s="48"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="48"/>
+      <c r="Q55" s="48"/>
+      <c r="R55" s="48"/>
+      <c r="S55" s="48"/>
+      <c r="T55" s="48"/>
+      <c r="U55" s="48"/>
+      <c r="V55" s="48"/>
+      <c r="W55" s="48"/>
+      <c r="X55" s="48"/>
+      <c r="Y55" s="48"/>
+      <c r="Z55" s="48"/>
+      <c r="AA55" s="48"/>
+      <c r="AB55" s="48"/>
+      <c r="AC55" s="48"/>
+      <c r="AD55" s="48"/>
+      <c r="AE55" s="48"/>
+      <c r="AF55" s="48"/>
+      <c r="AG55" s="48"/>
+      <c r="AH55" s="48"/>
+      <c r="AI55" s="48"/>
+      <c r="AJ55" s="48"/>
+      <c r="AK55" s="48"/>
+      <c r="AL55" s="48"/>
+      <c r="AM55" s="48"/>
       <c r="AN55" s="42"/>
-      <c r="AO55" s="43"/>
-      <c r="AP55" s="43"/>
-      <c r="AQ55" s="43"/>
-      <c r="AR55" s="43"/>
-      <c r="AS55" s="44"/>
+      <c r="AO55" s="42"/>
+      <c r="AP55" s="42"/>
+      <c r="AQ55" s="42"/>
+      <c r="AR55" s="42"/>
+      <c r="AS55" s="42"/>
       <c r="AT55" s="51"/>
-      <c r="AU55" s="52"/>
-      <c r="AV55" s="52"/>
-      <c r="AW55" s="52"/>
-      <c r="AX55" s="52"/>
-      <c r="AY55" s="52"/>
-      <c r="AZ55" s="52"/>
-      <c r="BA55" s="53"/>
+      <c r="AU55" s="51"/>
+      <c r="AV55" s="51"/>
+      <c r="AW55" s="51"/>
+      <c r="AX55" s="51"/>
+      <c r="AY55" s="51"/>
+      <c r="AZ55" s="51"/>
+      <c r="BA55" s="51"/>
       <c r="BB55" s="42"/>
-      <c r="BC55" s="43"/>
-      <c r="BD55" s="43"/>
-      <c r="BE55" s="43"/>
-      <c r="BF55" s="43"/>
-      <c r="BG55" s="43"/>
-      <c r="BH55" s="44"/>
+      <c r="BC55" s="42"/>
+      <c r="BD55" s="42"/>
+      <c r="BE55" s="42"/>
+      <c r="BF55" s="42"/>
+      <c r="BG55" s="42"/>
+      <c r="BH55" s="42"/>
       <c r="BI55" s="33"/>
       <c r="BJ55" s="34"/>
       <c r="BK55" s="34"/>
@@ -16070,7 +16079,7 @@
       <c r="H59" s="68"/>
       <c r="I59" s="67">
         <f ca="1">IFERROR(IF(AND(D32="",I32=""),DATEDIF($CB30,TODAY(),"m")-D59*12+1,DATEDIF($CB30,$CB32,"m")-D59*12+1),"")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J59" s="67"/>
       <c r="K59" s="68" t="s">
@@ -37074,6 +37083,9 @@
     </row>
   </sheetData>
   <mergeCells count="1907">
+    <mergeCell ref="AN55:AS55"/>
+    <mergeCell ref="M55:AM55"/>
+    <mergeCell ref="D55:L55"/>
     <mergeCell ref="D56:L56"/>
     <mergeCell ref="M56:AM56"/>
     <mergeCell ref="AN56:AS56"/>
@@ -37099,6 +37111,13 @@
     <mergeCell ref="AT59:BA59"/>
     <mergeCell ref="BB59:BH59"/>
     <mergeCell ref="BI59:BM59"/>
+    <mergeCell ref="BB54:BH54"/>
+    <mergeCell ref="AT54:BA54"/>
+    <mergeCell ref="AN54:AS54"/>
+    <mergeCell ref="M54:AM54"/>
+    <mergeCell ref="D54:L54"/>
+    <mergeCell ref="BB55:BH55"/>
+    <mergeCell ref="AT55:BA55"/>
     <mergeCell ref="D52:L52"/>
     <mergeCell ref="M52:AM52"/>
     <mergeCell ref="AN52:AS52"/>
@@ -37110,16 +37129,6 @@
     <mergeCell ref="AT53:BA53"/>
     <mergeCell ref="BB53:BH53"/>
     <mergeCell ref="BI53:BM53"/>
-    <mergeCell ref="D54:L54"/>
-    <mergeCell ref="M54:AM54"/>
-    <mergeCell ref="AN54:AS54"/>
-    <mergeCell ref="AT54:BA54"/>
-    <mergeCell ref="BB54:BH54"/>
-    <mergeCell ref="D55:L55"/>
-    <mergeCell ref="M55:AM55"/>
-    <mergeCell ref="AN55:AS55"/>
-    <mergeCell ref="AT55:BA55"/>
-    <mergeCell ref="BB55:BH55"/>
     <mergeCell ref="D48:L48"/>
     <mergeCell ref="M48:AM48"/>
     <mergeCell ref="AN48:AS48"/>
